--- a/prep-release-0-6-0/ig/StructureDefinition-ror-confidence-geolocation.xlsx
+++ b/prep-release-0-6-0/ig/StructureDefinition-ror-confidence-geolocation.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T17:35:00+00:00</t>
+    <t>2025-07-29T12:50:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/prep-release-0-6-0/ig/StructureDefinition-ror-confidence-geolocation.xlsx
+++ b/prep-release-0-6-0/ig/StructureDefinition-ror-confidence-geolocation.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-29T12:50:02+00:00</t>
+    <t>2025-07-29T14:28:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
